--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,26 +617,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45737</v>
+        <v>43372</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -644,24 +644,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>22909</v>
+        <v>6739</v>
       </c>
       <c r="H2" t="n">
-        <v>72322</v>
+        <v>91020</v>
       </c>
       <c r="I2" t="n">
-        <v>5864401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K2" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
-        <v>3.170731707317073</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>2.77</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -670,10 +674,14 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>105.6</v>
+      </c>
       <c r="X2" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y2" t="n">
         <v>800</v>
@@ -682,58 +690,58 @@
         <v>930</v>
       </c>
       <c r="AA2" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>0.14</v>
       </c>
       <c r="AC2" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AD2" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AE2" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF2" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AG2" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -741,31 +749,33 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>22713</v>
+        <v>6739</v>
       </c>
       <c r="H3" t="n">
-        <v>59683</v>
+        <v>91020</v>
       </c>
       <c r="I3" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>2.77</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>91.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>106.9</v>
+        <v>103.2</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -776,7 +786,7 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y3" t="n">
         <v>800</v>
@@ -785,58 +795,58 @@
         <v>930</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>0.14</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580</v>
+        <v>1500</v>
       </c>
       <c r="AD3" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AE3" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF3" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AG3" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AH3" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -844,25 +854,27 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>22713</v>
+        <v>6740</v>
       </c>
       <c r="H4" t="n">
-        <v>59683</v>
+        <v>91021</v>
       </c>
       <c r="I4" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="M4" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -873,13 +885,13 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>93.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="W4" t="n">
-        <v>107.4</v>
+        <v>103.8</v>
       </c>
       <c r="X4" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y4" t="n">
         <v>800</v>
@@ -888,58 +900,58 @@
         <v>930</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>0.14</v>
       </c>
       <c r="AC4" t="n">
-        <v>1580</v>
+        <v>1500</v>
       </c>
       <c r="AD4" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AE4" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF4" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AG4" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AH4" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -947,58 +959,44 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>22713</v>
+        <v>6740</v>
       </c>
       <c r="H5" t="n">
-        <v>59683</v>
+        <v>91021</v>
       </c>
       <c r="I5" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J5" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>89.7</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>105.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>107.9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="S5" t="n">
-        <v>107.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="U5" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>108.6</v>
-      </c>
+        <v>103.4</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y5" t="n">
         <v>800</v>
@@ -1007,58 +1005,58 @@
         <v>930</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>0.14</v>
       </c>
       <c r="AC5" t="n">
-        <v>1580</v>
+        <v>1500</v>
       </c>
       <c r="AD5" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AE5" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF5" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AG5" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AH5" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1066,31 +1064,33 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22714</v>
+        <v>6741</v>
       </c>
       <c r="H6" t="n">
-        <v>72035</v>
+        <v>91022</v>
       </c>
       <c r="I6" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J6" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K6" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
-        <v>4.38</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>95</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>111.2</v>
+        <v>104.3</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1098,14 +1098,10 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="W6" t="n">
-        <v>113.5</v>
-      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y6" t="n">
         <v>800</v>
@@ -1114,58 +1110,58 @@
         <v>930</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>0.14</v>
       </c>
       <c r="AC6" t="n">
-        <v>1580</v>
+        <v>1500</v>
       </c>
       <c r="AD6" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AE6" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF6" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AG6" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AH6" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1173,42 +1169,44 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>22714</v>
+        <v>6741</v>
       </c>
       <c r="H7" t="n">
-        <v>72035</v>
+        <v>91022</v>
       </c>
       <c r="I7" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J7" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
-        <v>4.38</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>61</v>
-      </c>
-      <c r="N7" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>111.2</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>103.3</v>
+      </c>
       <c r="X7" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y7" t="n">
         <v>800</v>
@@ -1217,58 +1215,58 @@
         <v>930</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>0.14</v>
       </c>
       <c r="AC7" t="n">
-        <v>1580</v>
+        <v>1500</v>
       </c>
       <c r="AD7" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AE7" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF7" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AG7" t="n">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="AH7" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CASING</t>
+          <t>TPC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>177.8</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N80Q</t>
+          <t>L80CR1</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45695</v>
+        <v>43372</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1276,42 +1274,60 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>22777</v>
+        <v>6741</v>
       </c>
       <c r="H8" t="n">
-        <v>72288</v>
+        <v>91022</v>
       </c>
       <c r="I8" t="n">
-        <v>5812401</v>
-      </c>
-      <c r="J8" t="n">
-        <v>350</v>
+        <v>2725146</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L8" t="n">
-        <v>4.126984126984127</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N8" t="n">
-        <v>94.3</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>111.1</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+        <v>104.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>107</v>
+      </c>
+      <c r="T8" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>103.7</v>
+      </c>
       <c r="X8" t="n">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="Y8" t="n">
         <v>800</v>
@@ -1320,32 +1336,783 @@
         <v>930</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>0.14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="AD8" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AE8" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="AF8" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AG8" t="n">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="AH8" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>SPC N80Q Casing TT04\SPC CN8070453 SMLS  2024 TT04 - Calificacion -.xlsm</t>
+          <t>SPC TPC L80\SPC TPC  86 x 15 L80 Cr1 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6739</v>
+      </c>
+      <c r="H9" t="n">
+        <v>91020</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6739</v>
+      </c>
+      <c r="H10" t="n">
+        <v>91020</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>61</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6740</v>
+      </c>
+      <c r="H11" t="n">
+        <v>91021</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="W11" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>6740</v>
+      </c>
+      <c r="H12" t="n">
+        <v>91021</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>61</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>6741</v>
+      </c>
+      <c r="H13" t="n">
+        <v>91022</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>61</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6741</v>
+      </c>
+      <c r="H14" t="n">
+        <v>91022</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>61</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="X14" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TPC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>L80 1CR</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TAMSA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6741</v>
+      </c>
+      <c r="H15" t="n">
+        <v>91022</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2725146</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>61</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>45</v>
+      </c>
+      <c r="N15" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="O15" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>107</v>
+      </c>
+      <c r="T15" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="U15" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>880</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>800</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>733</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>660</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>733</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>733</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>SPC TPC L80\SPC TPC L80 1CR\SPC TPC  86 x 15 L80 1CR 2018 TT04 prueba .xlsm</t>
         </is>
       </c>
     </row>
